--- a/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE33DC97-258A-46B0-B18A-CF7641F9E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0D5CB0-1F4D-4B7F-A487-AF0B72B07F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{328AFB1F-C8F2-42E1-8A88-A8C0B3C478AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED64D58B-DA44-44E5-ADE2-7B07AF518995}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,63%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
@@ -104,28 +104,28 @@
     <t>38,26%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -134,28 +134,28 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>29,18%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>31,3%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>47,55%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>48,23%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,163 +251,160 @@
     <t>31,62%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>41,54%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>50,81%</t>
   </si>
   <si>
     <t>45,72%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E6A531-5C5C-4563-AFFA-CFC9C99A54D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6351A6F-5097-4BD7-9986-7D2549F66DB3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,10 +1630,10 @@
         <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>3892</v>
@@ -1645,13 +1642,13 @@
         <v>3275431</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,13 +1663,13 @@
         <v>708501</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>963</v>
@@ -1681,13 +1678,13 @@
         <v>712355</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>1639</v>
@@ -1696,13 +1693,13 @@
         <v>1420856</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0D5CB0-1F4D-4B7F-A487-AF0B72B07F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9C67CC6-8B4A-4E35-A50C-21F73E38DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED64D58B-DA44-44E5-ADE2-7B07AF518995}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5E20610-5B5D-4499-AE70-67CAE24561B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,247 +164,244 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6351A6F-5097-4BD7-9986-7D2549F66DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFAF43F-9B38-4041-B6CC-6E613AAD8736}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -940,7 +937,7 @@
         <v>306</v>
       </c>
       <c r="D4" s="7">
-        <v>235230</v>
+        <v>225298</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -955,7 +952,7 @@
         <v>705</v>
       </c>
       <c r="I4" s="7">
-        <v>395151</v>
+        <v>361319</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -970,7 +967,7 @@
         <v>1011</v>
       </c>
       <c r="N4" s="7">
-        <v>630381</v>
+        <v>586617</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -991,7 +988,7 @@
         <v>260</v>
       </c>
       <c r="D5" s="7">
-        <v>206252</v>
+        <v>195120</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1006,7 +1003,7 @@
         <v>544</v>
       </c>
       <c r="I5" s="7">
-        <v>327747</v>
+        <v>294100</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1021,7 +1018,7 @@
         <v>804</v>
       </c>
       <c r="N5" s="7">
-        <v>533999</v>
+        <v>489220</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1042,7 +1039,7 @@
         <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>97657</v>
+        <v>92113</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1057,7 +1054,7 @@
         <v>176</v>
       </c>
       <c r="I6" s="7">
-        <v>112232</v>
+        <v>99321</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1072,7 +1069,7 @@
         <v>298</v>
       </c>
       <c r="N6" s="7">
-        <v>209889</v>
+        <v>191434</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1093,7 +1090,7 @@
         <v>688</v>
       </c>
       <c r="D7" s="7">
-        <v>539139</v>
+        <v>512531</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1108,7 +1105,7 @@
         <v>1425</v>
       </c>
       <c r="I7" s="7">
-        <v>835130</v>
+        <v>754740</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1123,7 +1120,7 @@
         <v>2113</v>
       </c>
       <c r="N7" s="7">
-        <v>1374269</v>
+        <v>1267271</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1146,7 +1143,7 @@
         <v>605</v>
       </c>
       <c r="D8" s="7">
-        <v>629833</v>
+        <v>625421</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1161,7 +1158,7 @@
         <v>1007</v>
       </c>
       <c r="I8" s="7">
-        <v>748646</v>
+        <v>694354</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1176,7 +1173,7 @@
         <v>1612</v>
       </c>
       <c r="N8" s="7">
-        <v>1378480</v>
+        <v>1319775</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1197,7 +1194,7 @@
         <v>974</v>
       </c>
       <c r="D9" s="7">
-        <v>1056067</v>
+        <v>1194947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1212,7 +1209,7 @@
         <v>1360</v>
       </c>
       <c r="I9" s="7">
-        <v>1068054</v>
+        <v>1066547</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1227,7 +1224,7 @@
         <v>2334</v>
       </c>
       <c r="N9" s="7">
-        <v>2124121</v>
+        <v>2261495</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1248,7 +1245,7 @@
         <v>409</v>
       </c>
       <c r="D10" s="7">
-        <v>472190</v>
+        <v>466238</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1263,7 +1260,7 @@
         <v>550</v>
       </c>
       <c r="I10" s="7">
-        <v>429458</v>
+        <v>473806</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1278,7 +1275,7 @@
         <v>959</v>
       </c>
       <c r="N10" s="7">
-        <v>901648</v>
+        <v>940044</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1299,7 +1296,7 @@
         <v>1988</v>
       </c>
       <c r="D11" s="7">
-        <v>2158091</v>
+        <v>2286606</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1314,7 +1311,7 @@
         <v>2917</v>
       </c>
       <c r="I11" s="7">
-        <v>2246158</v>
+        <v>2234708</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1329,7 +1326,7 @@
         <v>4905</v>
       </c>
       <c r="N11" s="7">
-        <v>4404249</v>
+        <v>4521314</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1352,7 +1349,7 @@
         <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>212634</v>
+        <v>212773</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1367,7 +1364,7 @@
         <v>342</v>
       </c>
       <c r="I12" s="7">
-        <v>246205</v>
+        <v>231027</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1382,7 +1379,7 @@
         <v>547</v>
       </c>
       <c r="N12" s="7">
-        <v>458839</v>
+        <v>443801</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1403,7 +1400,7 @@
         <v>330</v>
       </c>
       <c r="D13" s="7">
-        <v>321078</v>
+        <v>302394</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1418,7 +1415,7 @@
         <v>424</v>
       </c>
       <c r="I13" s="7">
-        <v>296233</v>
+        <v>270587</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1433,7 +1430,7 @@
         <v>754</v>
       </c>
       <c r="N13" s="7">
-        <v>617310</v>
+        <v>572982</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1454,7 +1451,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="7">
-        <v>138654</v>
+        <v>130829</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1469,7 +1466,7 @@
         <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>170665</v>
+        <v>158129</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1484,7 +1481,7 @@
         <v>382</v>
       </c>
       <c r="N14" s="7">
-        <v>309318</v>
+        <v>288958</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1505,7 +1502,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>672366</v>
+        <v>645996</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1520,7 +1517,7 @@
         <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>713103</v>
+        <v>659743</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1535,7 +1532,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1385468</v>
+        <v>1305740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1558,7 +1555,7 @@
         <v>1116</v>
       </c>
       <c r="D16" s="7">
-        <v>1077697</v>
+        <v>1063493</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1573,7 +1570,7 @@
         <v>2054</v>
       </c>
       <c r="I16" s="7">
-        <v>1390003</v>
+        <v>1286700</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -1588,7 +1585,7 @@
         <v>3170</v>
       </c>
       <c r="N16" s="7">
-        <v>2467700</v>
+        <v>2350193</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -1609,7 +1606,7 @@
         <v>1564</v>
       </c>
       <c r="D17" s="7">
-        <v>1583397</v>
+        <v>1692462</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -1624,13 +1621,13 @@
         <v>2328</v>
       </c>
       <c r="I17" s="7">
-        <v>1692034</v>
+        <v>1631235</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>110</v>
@@ -1639,7 +1636,7 @@
         <v>3892</v>
       </c>
       <c r="N17" s="7">
-        <v>3275431</v>
+        <v>3323696</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -1660,46 +1657,46 @@
         <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>708501</v>
+        <v>689180</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>963</v>
       </c>
       <c r="I18" s="7">
-        <v>712355</v>
+        <v>731256</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1639</v>
       </c>
       <c r="N18" s="7">
-        <v>1420856</v>
+        <v>1420435</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1708,7 @@
         <v>3356</v>
       </c>
       <c r="D19" s="7">
-        <v>3369596</v>
+        <v>3445134</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1726,7 +1723,7 @@
         <v>5345</v>
       </c>
       <c r="I19" s="7">
-        <v>3794392</v>
+        <v>3649191</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1741,7 +1738,7 @@
         <v>8701</v>
       </c>
       <c r="N19" s="7">
-        <v>7163987</v>
+        <v>7094325</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
